--- a/Instances/05_SlowMoving.xlsx
+++ b/Instances/05_SlowMoving.xlsx
@@ -9,8 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3044,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>8.23</v>
+        <v>1.77</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3073,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>7.54</v>
+        <v>1.45</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3102,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>1.8</v>
+        <v>0.34</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3131,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>1.67</v>
+        <v>0.44</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3160,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>2.19</v>
+        <v>0.35</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3189,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>1.78</v>
+        <v>0.41</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3218,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>6.68</v>
+        <v>1.51</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3247,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>7.16</v>
+        <v>1.68</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3276,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>6.95</v>
+        <v>1.91</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3305,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>8.84</v>
+        <v>1.59</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3334,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>8.369999999999999</v>
+        <v>1.67</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3363,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>7.79</v>
+        <v>1.41</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3392,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>1.97</v>
+        <v>0.46</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3421,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>4.47</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3450,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>2.16</v>
+        <v>0.43</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3479,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>9.289999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3508,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>1.69</v>
+        <v>0.39</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3537,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>4.54</v>
+        <v>0.92</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3566,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>1.93</v>
+        <v>0.35</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3595,19 +3597,19 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>395.78</v>
@@ -3624,19 +3626,19 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>450.28</v>
@@ -3653,19 +3655,19 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>2573.63</v>
@@ -3682,19 +3684,19 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>3043.73</v>
@@ -3711,19 +3713,19 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>458.75</v>
@@ -3740,19 +3742,19 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>367.7</v>
@@ -3769,19 +3771,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>2048.39</v>
@@ -3798,19 +3800,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>3032.27</v>
@@ -3825,6 +3827,1930 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:28">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V2" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V3" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V4" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V5" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V6" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V7" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V8" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V9" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V10" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V11" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3848,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>360</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3856,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>360</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3864,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3872,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3880,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>72</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3888,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3896,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>288</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3904,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3912,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>288</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3920,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>288</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3928,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>144</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3936,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>360</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3944,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3952,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3960,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3968,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>144</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3976,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>72</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3984,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>144</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3992,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>54</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4000,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>45</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4008,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4016,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4024,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4032,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>27</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4040,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>45</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4048,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4056,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -4064,7 +5990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4166,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -4255,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4344,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4433,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -4522,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4611,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4789,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4878,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -4967,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -5056,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -5145,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -5323,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5412,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -5501,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -5679,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5768,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -5857,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -6124,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -6213,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -6302,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -6391,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>

--- a/Instances/05_SlowMoving.xlsx
+++ b/Instances/05_SlowMoving.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>1.77</v>
+        <v>0.01</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3081,7 +3081,7 @@
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>1.45</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>1.51</v>
+        <v>0.01</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>1.68</v>
+        <v>0.01</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>1.91</v>
+        <v>0.01</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>1.59</v>
+        <v>0.01</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>1.67</v>
+        <v>0.01</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>1.41</v>
+        <v>0.01</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>1.48</v>
+        <v>0.01</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3516,7 +3516,7 @@
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57.6</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>36</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>57.6</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21.6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_SlowMoving.xlsx
+++ b/Instances/05_SlowMoving.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01</v>
+        <v>0.07242855592954889</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0.03859330089593502</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.04997869662480674</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.03553240579149061</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.05199954151355698</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.05478762079583822</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3226,7 +3226,7 @@
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01</v>
+        <v>0.00451382628793856</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01</v>
+        <v>0.009106534304567279</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
+        <v>0.008027087294996679</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01</v>
+        <v>0.004820392459048688</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01</v>
+        <v>0.00620393578152686</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01</v>
+        <v>0.007738220386416294</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.00189342114454379</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.0535247539683329</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.001552570830264347</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01</v>
+        <v>0.005642460233201353</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.002390181398975629</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.06069447566120056</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.001238829999797477</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
@@ -3655,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>72</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.4</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>57.6</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>57.6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.8</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>43.2</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_SlowMoving.xlsx
+++ b/Instances/05_SlowMoving.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07242855592954889</v>
+        <v>0.004191081204490243</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3081,7 +3081,7 @@
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03859330089593502</v>
+        <v>0.003219260188304983</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04997869662480674</v>
+        <v>0.002957446228600872</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03553240579149061</v>
+        <v>0.002284663133028548</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05199954151355698</v>
+        <v>0.003041586506215688</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05478762079583822</v>
+        <v>0.002614627422791269</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00451382628793856</v>
+        <v>0.000333935052725689</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.009106534304567279</v>
+        <v>0.0004659677962687411</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008027087294996679</v>
+        <v>0.0004673405563378528</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004820392459048688</v>
+        <v>0.0003384615077922058</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3342,7 +3342,7 @@
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00620393578152686</v>
+        <v>0.0003268621504352434</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007738220386416294</v>
+        <v>0.0005395306001508431</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00189342114454379</v>
+        <v>0.0001025147502519829</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0535247539683329</v>
+        <v>0.002434583557565823</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3458,7 +3458,7 @@
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001552570830264347</v>
+        <v>0.000115134262153857</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005642460233201353</v>
+        <v>0.0003568267996658521</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002390181398975629</v>
+        <v>0.0001218073948795479</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06069447566120056</v>
+        <v>0.003061780040761219</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3574,7 +3574,7 @@
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001238829999797477</v>
+        <v>9.940343673076346e-05</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
@@ -3655,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>43.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.2</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>57.6</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>43.2</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>72</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.8</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21.6</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_SlowMoving.xlsx
+++ b/Instances/05_SlowMoving.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004191081204490243</v>
+        <v>0.03090043831395389</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003219260188304983</v>
+        <v>0.0190972085505886</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002957446228600872</v>
+        <v>0.0259510767309842</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002284663133028548</v>
+        <v>0.02478906600990979</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003041586506215688</v>
+        <v>0.02784655874039183</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002614627422791269</v>
+        <v>0.02973277598109731</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000333935052725689</v>
+        <v>0.00222842859159102</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0004659677962687411</v>
+        <v>0.003938063177608931</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3284,7 +3284,7 @@
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004673405563378528</v>
+        <v>0.0043268622110446</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0003384615077922058</v>
+        <v>0.00283253435547383</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0003268621504352434</v>
+        <v>0.002359197338515294</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0005395306001508431</v>
+        <v>0.004373075487952305</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0001025147502519829</v>
+        <v>0.0009137530811025519</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002434583557565823</v>
+        <v>0.01875813359486209</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000115134262153857</v>
+        <v>0.0008417146848205615</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0003568267996658521</v>
+        <v>0.002216172895602726</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0001218073948795479</v>
+        <v>0.001002961200460856</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003061780040761219</v>
+        <v>0.03298964576845888</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>9.940343673076346e-05</v>
+        <v>0.0005998048376912025</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
@@ -3655,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
@@ -3742,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.2</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>57.6</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>57.6</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>57.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>57.6</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_SlowMoving.xlsx
+++ b/Instances/05_SlowMoving.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03090043831395389</v>
+        <v>0.03401999999999999</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0190972085505886</v>
+        <v>0.025128</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0259510767309842</v>
+        <v>0.025254</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02478906600990979</v>
+        <v>0.024975</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02784655874039183</v>
+        <v>0.027999</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02973277598109731</v>
+        <v>0.0288</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00222842859159102</v>
+        <v>0.002880000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003938063177608931</v>
+        <v>0.004464000000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0043268622110446</v>
+        <v>0.00432</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00283253435547383</v>
+        <v>0.00306</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002359197338515294</v>
+        <v>0.002988</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004373075487952305</v>
+        <v>0.004284</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0009137530811025519</v>
+        <v>0.0009270000000000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01875813359486209</v>
+        <v>0.025218</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0008417146848205615</v>
+        <v>0.0009630000000000001</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002216172895602726</v>
+        <v>0.002988</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001002961200460856</v>
+        <v>0.001143</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03298964576845888</v>
+        <v>0.032346</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0005998048376912025</v>
+        <v>0.0007920000000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.0131625</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.0132795</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.0131985</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.0135675</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.0146475</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.014562</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.0151155</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.015291</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>57.6</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43.2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>72</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>43.2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14.4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.8</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_SlowMoving.xlsx
+++ b/Instances/05_SlowMoving.xlsx
@@ -3052,7 +3052,7 @@
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03401999999999999</v>
+        <v>0.018144</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.025128</v>
+        <v>0.0134016</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.025254</v>
+        <v>0.0134688</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.024975</v>
+        <v>0.01332</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.027999</v>
+        <v>0.0149328</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0288</v>
+        <v>0.01536</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3226,7 +3226,7 @@
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002880000000000001</v>
+        <v>0.001536</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3255,7 +3255,7 @@
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004464000000000001</v>
+        <v>0.002380800000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3284,7 +3284,7 @@
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00432</v>
+        <v>0.002304</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3313,7 +3313,7 @@
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00306</v>
+        <v>0.001632</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3342,7 +3342,7 @@
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002988</v>
+        <v>0.0015936</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3371,7 +3371,7 @@
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004284</v>
+        <v>0.0022848</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3400,7 +3400,7 @@
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0009270000000000001</v>
+        <v>0.0004944000000000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3429,7 +3429,7 @@
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.025218</v>
+        <v>0.0134496</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3458,7 +3458,7 @@
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0009630000000000001</v>
+        <v>0.0005136000000000001</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3487,7 +3487,7 @@
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002988</v>
+        <v>0.0015936</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3516,7 +3516,7 @@
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001143</v>
+        <v>0.0006096000000000001</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3545,7 +3545,7 @@
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.032346</v>
+        <v>0.0172512</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3574,7 +3574,7 @@
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0007920000000000001</v>
+        <v>0.0004224000000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0131625</v>
+        <v>0.007019999999999998</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0132795</v>
+        <v>0.0070824</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0131985</v>
+        <v>0.0070392</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0135675</v>
+        <v>0.007235999999999999</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0146475</v>
+        <v>0.007811999999999999</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.014562</v>
+        <v>0.007766400000000001</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0151155</v>
+        <v>0.0080616</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>0.015291</v>
+        <v>0.0081552</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
